--- a/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO_REC60.xlsx
+++ b/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO_REC60.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="209">
   <si>
     <t>Fecha:</t>
   </si>
@@ -600,6 +600,60 @@
   </si>
   <si>
     <t>CN_09_03_CO_REC60</t>
+  </si>
+  <si>
+    <t>Mano de dios poniendo criaturas</t>
+  </si>
+  <si>
+    <t>Imagen de mono a hombre</t>
+  </si>
+  <si>
+    <t>Volcán explotando</t>
+  </si>
+  <si>
+    <t>Fijismo</t>
+  </si>
+  <si>
+    <t>Catastrofismo</t>
+  </si>
+  <si>
+    <t>Dibujar a Adán y Eva rodeados de todo tipo de animales. La imagen de muestra es solo para dar una idea.</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/02/f2/2a/c8/vatican-museum.jpg</t>
+  </si>
+  <si>
+    <t>Jirafa comiendo ramas</t>
+  </si>
+  <si>
+    <t>https://biofosil.files.wordpress.com/2014/09/lamarck.jpg</t>
+  </si>
+  <si>
+    <t>Jirafas estirando el cuello</t>
+  </si>
+  <si>
+    <t>Ilustrar. Hacer no 4 sino 5 jirafas. Hacer también más ramas. La jirafa pequeña no alcanza ninguna, la siguiente las hojas más bajas, la tercera unas más altas pero las más bajas ya está comidas. Y así.</t>
+  </si>
+  <si>
+    <t>Culturista</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t>288116087  y  354447947</t>
+  </si>
+  <si>
+    <t>Sacerdote y científico</t>
+  </si>
+  <si>
+    <t>Poner las dos imágenes juntas, una al lado de la otra</t>
+  </si>
+  <si>
+    <t>Hacer cinco conejos blancos y cinco negros, entre la nieve. Luego hacer una flecha hacia abajo, y dibujar de nuevo 5 y 5, pero 2 de los negros están tachados. Otra flecha hacia abajo, y una tercera fila de 10 conejos, esta vez 3 negros y 7 blancos. De los 3 negros, se tachan 2.  Cuarta fila con 10 conejos, 9 blancos, y uno negro tachado. Quinta fila con 10 conejos blancos.</t>
+  </si>
+  <si>
+    <t>León con presa</t>
   </si>
 </sst>
 </file>
@@ -2476,8 +2530,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2771,7 +2825,7 @@
         <v>IMG01</v>
       </c>
       <c r="B10" s="62">
-        <v>1</v>
+        <v>266896061</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2799,7 +2853,9 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="63" t="s">
+        <v>191</v>
+      </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
@@ -2809,22 +2865,28 @@
     <row r="11" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="62"/>
+        <v>IMG02</v>
+      </c>
+      <c r="B11" s="62">
+        <v>365697050</v>
+      </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>150</v>
+      </c>
       <c r="F11" s="13" t="str">
-        <f t="shared" ref="F11:F74" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
+        <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_09_03_CO_REC60_IMG02.jpg</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
@@ -2834,7 +2896,9 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="64"/>
+      <c r="J11" s="64" t="s">
+        <v>192</v>
+      </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
@@ -2844,22 +2908,28 @@
     <row r="12" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B12" s="62"/>
+        <v>IMG03</v>
+      </c>
+      <c r="B12" s="62">
+        <v>207958261</v>
+      </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>150</v>
+      </c>
       <c r="F12" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC60_IMG03.jpg</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2869,7 +2939,9 @@
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J12" s="64"/>
+      <c r="J12" s="64" t="s">
+        <v>194</v>
+      </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
@@ -2879,22 +2951,28 @@
     <row r="13" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B13" s="62"/>
+        <v>IMG04</v>
+      </c>
+      <c r="B13" s="62">
+        <v>383850700</v>
+      </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>150</v>
+      </c>
       <c r="F13" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC60_IMG04.jpg</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2904,77 +2982,97 @@
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J13" s="64"/>
+      <c r="J13" s="64" t="s">
+        <v>193</v>
+      </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B14" s="62"/>
+        <v>IMG05</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>197</v>
+      </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F14" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC60_IMG05n.jpg</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC60_IMG05a.jpg</v>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>196</v>
+      </c>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B15" s="62"/>
+        <v>IMG06</v>
+      </c>
+      <c r="B15" s="62">
+        <v>304018292</v>
+      </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F15" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC60_IMG06n.jpg</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC60_IMG06a.jpg</v>
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J15" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J15" s="66" t="s">
+        <v>195</v>
+      </c>
       <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
@@ -2984,22 +3082,28 @@
     <row r="16" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B16" s="62"/>
+        <v>IMG07</v>
+      </c>
+      <c r="B16" s="62">
+        <v>159912317</v>
+      </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>150</v>
+      </c>
       <c r="F16" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC60_IMG07.jpg</v>
       </c>
       <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3009,7 +3113,9 @@
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J16" s="67"/>
+      <c r="J16" s="67" t="s">
+        <v>198</v>
+      </c>
       <c r="K16" s="64"/>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
@@ -3019,22 +3125,28 @@
     <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B17" s="62"/>
+        <v>IMG08</v>
+      </c>
+      <c r="B17" s="62">
+        <v>386549137</v>
+      </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>150</v>
+      </c>
       <c r="F17" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC60_IMG08.jpg</v>
       </c>
       <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3044,145 +3156,179 @@
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J17" s="66"/>
+      <c r="J17" s="66" t="s">
+        <v>208</v>
+      </c>
       <c r="K17" s="66"/>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B18" s="62"/>
+        <v>IMG09</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>199</v>
+      </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F18" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC60_IMG09n.jpg</v>
       </c>
       <c r="G18" s="13" t="str">
         <f ca="1">IF($F18&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC60_IMG09a.jpg</v>
       </c>
       <c r="I18" s="13" t="str">
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="K18" s="64" t="s">
+        <v>201</v>
+      </c>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="62"/>
+        <v>IMG10</v>
+      </c>
+      <c r="B19" s="62">
+        <v>272601740</v>
+      </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC60_IMG10n.jpg</v>
       </c>
       <c r="G19" s="13" t="str">
         <f ca="1">IF($F19&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC60_IMG10a.jpg</v>
       </c>
       <c r="I19" s="13" t="str">
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="67"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J19" s="67" t="s">
+        <v>202</v>
+      </c>
       <c r="K19" s="68"/>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="175.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B20" s="62"/>
+        <v>IMG11</v>
+      </c>
+      <c r="B20" s="62">
+        <v>1</v>
+      </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC60_IMG11n.jpg</v>
       </c>
       <c r="G20" s="13" t="str">
         <f ca="1">IF($F20&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H20" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC60_IMG11a.jpg</v>
       </c>
       <c r="I20" s="13" t="str">
         <f ca="1">IF(OR($B20&lt;&gt;"",$J20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 458 px</v>
       </c>
       <c r="J20" s="64"/>
-      <c r="K20" s="66"/>
+      <c r="K20" s="66" t="s">
+        <v>207</v>
+      </c>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B21" s="62"/>
+        <v>IMG12</v>
+      </c>
+      <c r="B21" s="62">
+        <v>187759358</v>
+      </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F21" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC60_IMG12n.jpg</v>
       </c>
       <c r="G21" s="13" t="str">
         <f ca="1">IF($F21&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H21" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC60_IMG12a.jpg</v>
       </c>
       <c r="I21" s="13" t="str">
         <f ca="1">IF(OR($B21&lt;&gt;"",$J21&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 458 px</v>
       </c>
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
@@ -3191,36 +3337,46 @@
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B22" s="62"/>
+        <v>IMG13</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>204</v>
+      </c>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC60_IMG13n.jpg</v>
       </c>
       <c r="G22" s="13" t="str">
         <f ca="1">IF($F22&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC60_IMG13a.jpg</v>
       </c>
       <c r="I22" s="13" t="str">
         <f ca="1">IF(OR($B22&lt;&gt;"",$J22&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="69"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" s="69" t="s">
+        <v>206</v>
+      </c>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
         <v>F12</v>
